--- a/data/trans_orig/P75_P_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF22505C-5708-40AE-9930-FABCEC7AEDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E08E05-3D84-4A3A-9817-F719D4533BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8BAC35B-5494-452C-9EBC-DDBADEAC64D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF675F13-9592-4C1E-9978-E130D286A86B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="375">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -98,1039 +98,1066 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>10,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1545,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670145E0-0470-44FF-A1D6-F7354EC27D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AB5A4D-BBF0-42F5-B5B2-8146F1702FBF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2085,7 +2112,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2094,13 +2121,13 @@
         <v>6919</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -2109,13 +2136,13 @@
         <v>10435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2157,13 @@
         <v>6817</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2145,13 +2172,13 @@
         <v>7498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2163,10 +2190,10 @@
         <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2208,13 @@
         <v>28297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2196,13 +2223,13 @@
         <v>22958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -2211,13 +2238,13 @@
         <v>51255</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2259,13 @@
         <v>69236</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -2247,13 +2274,13 @@
         <v>49282</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>113</v>
@@ -2262,13 +2289,13 @@
         <v>118518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2310,13 @@
         <v>135827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -2298,13 +2325,13 @@
         <v>109345</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>227</v>
@@ -2313,13 +2340,13 @@
         <v>245172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2388,7 @@
         <v>530</v>
       </c>
       <c r="N17" s="7">
-        <v>559256</v>
+        <v>559257</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>123</v>
@@ -2463,7 +2490,7 @@
         <v>1079</v>
       </c>
       <c r="N19" s="7">
-        <v>1146257</v>
+        <v>1146258</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>73</v>
@@ -2507,10 +2534,10 @@
         <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -2519,13 +2546,13 @@
         <v>37249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2567,13 @@
         <v>31773</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -2555,13 +2582,13 @@
         <v>18884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -2570,13 +2597,13 @@
         <v>50656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2618,13 @@
         <v>30248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2606,13 +2633,13 @@
         <v>32159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2621,13 +2648,13 @@
         <v>62407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2669,13 @@
         <v>136518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>98</v>
@@ -2657,13 +2684,13 @@
         <v>110349</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
@@ -2672,13 +2699,13 @@
         <v>246867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2720,13 @@
         <v>248846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>231</v>
@@ -2708,13 +2735,13 @@
         <v>250839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>462</v>
@@ -2723,13 +2750,13 @@
         <v>499685</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2771,13 @@
         <v>397218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>410</v>
@@ -2759,13 +2786,13 @@
         <v>447797</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>778</v>
@@ -2774,13 +2801,13 @@
         <v>845015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2822,13 @@
         <v>125608</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -2810,13 +2837,13 @@
         <v>133856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -2825,13 +2852,13 @@
         <v>259464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2899,13 +2926,13 @@
         <v>32842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2914,13 +2941,13 @@
         <v>23017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2929,13 +2956,13 @@
         <v>55859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2977,13 @@
         <v>25027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2965,13 +2992,13 @@
         <v>19986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -2980,13 +3007,13 @@
         <v>45014</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3028,13 @@
         <v>52260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>44</v>
@@ -3016,13 +3043,13 @@
         <v>49697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -3031,13 +3058,13 @@
         <v>101957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3079,13 @@
         <v>107466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -3067,13 +3094,13 @@
         <v>72227</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>164</v>
@@ -3082,13 +3109,13 @@
         <v>179692</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3130,13 @@
         <v>171855</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>190</v>
@@ -3118,13 +3145,13 @@
         <v>209496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3133,13 +3160,13 @@
         <v>381351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3181,13 @@
         <v>266646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H33" s="7">
         <v>261</v>
@@ -3169,13 +3196,13 @@
         <v>283864</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M33" s="7">
         <v>505</v>
@@ -3184,13 +3211,13 @@
         <v>550511</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3232,13 @@
         <v>63735</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
@@ -3220,13 +3247,13 @@
         <v>85859</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M34" s="7">
         <v>143</v>
@@ -3235,13 +3262,13 @@
         <v>149594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3324,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3309,13 +3336,13 @@
         <v>46707</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3324,13 +3351,13 @@
         <v>55901</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -3339,13 +3366,13 @@
         <v>102608</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3387,13 @@
         <v>38898</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -3375,13 +3402,13 @@
         <v>29757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>67</v>
@@ -3390,13 +3417,13 @@
         <v>68655</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3438,13 @@
         <v>84994</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>81</v>
@@ -3426,13 +3453,13 @@
         <v>85073</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>165</v>
@@ -3441,13 +3468,13 @@
         <v>170067</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3489,13 @@
         <v>184728</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H39" s="7">
         <v>165</v>
@@ -3477,13 +3504,13 @@
         <v>171636</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M39" s="7">
         <v>344</v>
@@ -3492,13 +3519,13 @@
         <v>356365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3540,13 @@
         <v>213107</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H40" s="7">
         <v>202</v>
@@ -3528,13 +3555,13 @@
         <v>214303</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M40" s="7">
         <v>402</v>
@@ -3543,13 +3570,13 @@
         <v>427410</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3591,13 @@
         <v>290774</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H41" s="7">
         <v>369</v>
@@ -3579,13 +3606,13 @@
         <v>383125</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M41" s="7">
         <v>648</v>
@@ -3594,13 +3621,13 @@
         <v>673898</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3642,13 @@
         <v>57992</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H42" s="7">
         <v>82</v>
@@ -3630,13 +3657,13 @@
         <v>84062</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -3645,13 +3672,13 @@
         <v>142053</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3746,13 @@
         <v>107590</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="H44" s="7">
         <v>86</v>
@@ -3734,13 +3761,13 @@
         <v>100435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
         <v>172</v>
@@ -3749,13 +3776,13 @@
         <v>208025</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3797,13 @@
         <v>106009</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H45" s="7">
         <v>70</v>
@@ -3785,13 +3812,13 @@
         <v>76125</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M45" s="7">
         <v>171</v>
@@ -3800,13 +3827,13 @@
         <v>182134</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>326</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3848,13 @@
         <v>197614</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="H46" s="7">
         <v>174</v>
@@ -3836,13 +3863,13 @@
         <v>190859</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M46" s="7">
         <v>362</v>
@@ -3851,13 +3878,13 @@
         <v>388472</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3899,13 @@
         <v>510953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H47" s="7">
         <v>383</v>
@@ -3887,13 +3914,13 @@
         <v>409993</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M47" s="7">
         <v>862</v>
@@ -3902,13 +3929,13 @@
         <v>920946</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3950,13 @@
         <v>787625</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H48" s="7">
         <v>744</v>
@@ -3938,13 +3965,13 @@
         <v>804468</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M48" s="7">
         <v>1481</v>
@@ -3953,13 +3980,13 @@
         <v>1592093</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +4001,13 @@
         <v>1281199</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H49" s="7">
         <v>1372</v>
@@ -3989,13 +4016,13 @@
         <v>1470768</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="M49" s="7">
         <v>2579</v>
@@ -4004,13 +4031,13 @@
         <v>2751967</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4052,13 @@
         <v>328185</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H50" s="7">
         <v>378</v>
@@ -4040,13 +4067,13 @@
         <v>402977</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="M50" s="7">
         <v>693</v>
@@ -4055,13 +4082,13 @@
         <v>731162</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4144,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_P_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E08E05-3D84-4A3A-9817-F719D4533BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B9540C-DAAC-4BDE-A7B3-915F43AF7DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF675F13-9592-4C1E-9978-E130D286A86B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE2E6E54-F35E-4D2E-911A-E8702F5B31AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="368">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Estudios universitarios de grado superior</t>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -98,1024 +98,1000 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>36,9%</t>
+    <t>36,88%</t>
   </si>
   <si>
     <t>40,31%</t>
@@ -1124,40 +1100,43 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,87%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>10,68%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>10,02%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1572,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AB5A4D-BBF0-42F5-B5B2-8146F1702FBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C4C136-F38D-4F36-83AE-161C05D7601D}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2112,7 +2091,7 @@
         <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2121,13 +2100,13 @@
         <v>6919</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -2136,13 +2115,13 @@
         <v>10435</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2136,13 @@
         <v>6817</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2172,13 +2151,13 @@
         <v>7498</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2190,10 +2169,10 @@
         <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2187,13 @@
         <v>28297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2223,13 +2202,13 @@
         <v>22958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -2238,13 +2217,13 @@
         <v>51255</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2238,13 @@
         <v>69236</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>48</v>
@@ -2274,13 +2253,13 @@
         <v>49282</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>113</v>
@@ -2289,13 +2268,13 @@
         <v>118518</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2289,13 @@
         <v>135827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -2325,13 +2304,13 @@
         <v>109345</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>227</v>
@@ -2340,13 +2319,13 @@
         <v>245172</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2340,13 @@
         <v>268099</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -2376,13 +2355,13 @@
         <v>291157</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>530</v>
@@ -2391,13 +2370,13 @@
         <v>559257</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2391,13 @@
         <v>65243</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -2427,13 +2406,13 @@
         <v>82062</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>140</v>
@@ -2442,13 +2421,13 @@
         <v>147305</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,7 +2483,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2516,13 +2495,13 @@
         <v>22650</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2531,13 +2510,13 @@
         <v>14599</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -2546,13 +2525,13 @@
         <v>37249</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2546,13 @@
         <v>31773</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -2582,13 +2561,13 @@
         <v>18884</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M21" s="7">
         <v>48</v>
@@ -2597,13 +2576,13 @@
         <v>50656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2597,13 @@
         <v>30248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2633,13 +2612,13 @@
         <v>32159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2648,13 +2627,13 @@
         <v>62407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2648,13 @@
         <v>136518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>98</v>
@@ -2684,13 +2663,13 @@
         <v>110349</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>222</v>
@@ -2699,13 +2678,13 @@
         <v>246867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2699,13 @@
         <v>248846</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>231</v>
@@ -2735,13 +2714,13 @@
         <v>250839</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>462</v>
@@ -2750,13 +2729,13 @@
         <v>499685</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2750,13 @@
         <v>397218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>410</v>
@@ -2786,13 +2765,13 @@
         <v>447797</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>778</v>
@@ -2801,13 +2780,13 @@
         <v>845015</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2801,13 @@
         <v>125608</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -2837,13 +2816,13 @@
         <v>133856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -2852,13 +2831,13 @@
         <v>259464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2893,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2926,13 +2905,13 @@
         <v>32842</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2941,13 +2920,13 @@
         <v>23017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -2956,13 +2935,13 @@
         <v>55859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2956,13 @@
         <v>25027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2992,13 +2971,13 @@
         <v>19986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -3007,13 +2986,13 @@
         <v>45014</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3007,13 @@
         <v>52260</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>44</v>
@@ -3043,13 +3022,13 @@
         <v>49697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -3058,13 +3037,13 @@
         <v>101957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3058,13 @@
         <v>107466</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>66</v>
@@ -3094,13 +3073,13 @@
         <v>72227</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>164</v>
@@ -3109,13 +3088,13 @@
         <v>179692</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3109,13 @@
         <v>171855</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>190</v>
@@ -3145,13 +3124,13 @@
         <v>209496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3160,13 +3139,13 @@
         <v>381351</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3160,13 @@
         <v>266646</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>261</v>
@@ -3196,13 +3175,13 @@
         <v>283864</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M33" s="7">
         <v>505</v>
@@ -3211,13 +3190,13 @@
         <v>550511</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3211,13 @@
         <v>63735</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
@@ -3247,13 +3226,13 @@
         <v>85859</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="M34" s="7">
         <v>143</v>
@@ -3262,13 +3241,13 @@
         <v>149594</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,7 +3303,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3336,13 +3315,13 @@
         <v>46707</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -3351,13 +3330,13 @@
         <v>55901</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>90</v>
@@ -3366,13 +3345,13 @@
         <v>102608</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3366,13 @@
         <v>38898</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>29</v>
@@ -3402,13 +3381,13 @@
         <v>29757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>67</v>
@@ -3417,13 +3396,13 @@
         <v>68655</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3417,13 @@
         <v>84994</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>81</v>
@@ -3453,13 +3432,13 @@
         <v>85073</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>165</v>
@@ -3468,13 +3447,13 @@
         <v>170067</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3468,13 @@
         <v>184728</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H39" s="7">
         <v>165</v>
@@ -3504,13 +3483,13 @@
         <v>171636</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M39" s="7">
         <v>344</v>
@@ -3519,13 +3498,13 @@
         <v>356365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3519,13 @@
         <v>213107</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H40" s="7">
         <v>202</v>
@@ -3555,13 +3534,13 @@
         <v>214303</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M40" s="7">
         <v>402</v>
@@ -3570,13 +3549,13 @@
         <v>427410</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3570,13 @@
         <v>290774</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
         <v>369</v>
@@ -3606,13 +3585,13 @@
         <v>383125</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M41" s="7">
         <v>648</v>
@@ -3621,13 +3600,13 @@
         <v>673898</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3621,13 @@
         <v>57992</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7">
         <v>82</v>
@@ -3657,13 +3636,13 @@
         <v>84062</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -3672,13 +3651,13 @@
         <v>142053</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3725,13 @@
         <v>107590</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>86</v>
@@ -3761,13 +3740,13 @@
         <v>100435</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>172</v>
@@ -3776,13 +3755,13 @@
         <v>208025</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3776,13 @@
         <v>106009</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H45" s="7">
         <v>70</v>
@@ -3812,13 +3791,13 @@
         <v>76125</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M45" s="7">
         <v>171</v>
@@ -3827,13 +3806,13 @@
         <v>182134</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3827,13 @@
         <v>197614</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="H46" s="7">
         <v>174</v>
@@ -3863,13 +3842,13 @@
         <v>190859</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>362</v>
@@ -3878,13 +3857,13 @@
         <v>388472</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3878,13 @@
         <v>510953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H47" s="7">
         <v>383</v>
@@ -3914,13 +3893,13 @@
         <v>409993</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M47" s="7">
         <v>862</v>
@@ -3929,13 +3908,13 @@
         <v>920946</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3929,13 @@
         <v>787625</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>744</v>
@@ -3965,13 +3944,13 @@
         <v>804468</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M48" s="7">
         <v>1481</v>
@@ -3980,13 +3959,13 @@
         <v>1592093</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3980,13 @@
         <v>1281199</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H49" s="7">
         <v>1372</v>
@@ -4016,13 +3995,13 @@
         <v>1470768</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M49" s="7">
         <v>2579</v>
@@ -4031,13 +4010,13 @@
         <v>2751967</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4031,13 @@
         <v>328185</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="H50" s="7">
         <v>378</v>
@@ -4067,13 +4046,13 @@
         <v>402977</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="M50" s="7">
         <v>693</v>
@@ -4082,13 +4061,13 @@
         <v>731162</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,7 +4123,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
